--- a/SUMMARY SHEETS/generastats_NMDS.xlsx
+++ b/SUMMARY SHEETS/generastats_NMDS.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.1708254263008863</v>
+        <v>-0.1708187027957799</v>
       </c>
       <c r="C2">
-        <v>-0.159571474473773</v>
+        <v>-0.1595063681064622</v>
       </c>
       <c r="D2">
-        <v>0.1857850583171239</v>
+        <v>0.1856497290374775</v>
       </c>
       <c r="E2">
-        <v>0.522</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.09693766147903791</v>
+        <v>0.09689406764096564</v>
       </c>
       <c r="C3">
-        <v>-0.1428171235677637</v>
+        <v>-0.1429463900712382</v>
       </c>
       <c r="D3">
-        <v>0.1339148288805914</v>
+        <v>0.1339954277576441</v>
       </c>
       <c r="E3">
-        <v>0.573</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.07187565665587399</v>
+        <v>0.0718668192145389</v>
       </c>
       <c r="C4">
-        <v>-0.002923782526950495</v>
+        <v>-0.002843900339208478</v>
       </c>
       <c r="D4">
-        <v>0.03366525801086803</v>
+        <v>0.03363353317137386</v>
       </c>
       <c r="E4">
-        <v>0.891</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.3121183909650284</v>
+        <v>-0.312090004279138</v>
       </c>
       <c r="C5">
-        <v>-0.1108072950116791</v>
+        <v>-0.110661453767536</v>
       </c>
       <c r="D5">
-        <v>0.2173702850627887</v>
+        <v>0.2171913215827108</v>
       </c>
       <c r="E5">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.2934646106827705</v>
+        <v>-0.2934520423021479</v>
       </c>
       <c r="C6">
-        <v>0.02677345200562194</v>
+        <v>0.02677168184512622</v>
       </c>
       <c r="D6">
-        <v>0.2396932036225976</v>
+        <v>0.2397028743972155</v>
       </c>
       <c r="E6">
-        <v>0.447</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.3107010562862463</v>
+        <v>-0.3106416482698011</v>
       </c>
       <c r="C7">
-        <v>0.3098579627524555</v>
+        <v>0.3099423083676798</v>
       </c>
       <c r="D7">
-        <v>0.6883074022406901</v>
+        <v>0.6882944498130235</v>
       </c>
       <c r="E7">
-        <v>0.035</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.4046268812813434</v>
+        <v>0.4046399902519532</v>
       </c>
       <c r="C8">
-        <v>-0.02638048487992201</v>
+        <v>-0.02638548006452267</v>
       </c>
       <c r="D8">
-        <v>0.6263477848455581</v>
+        <v>0.6263951653384038</v>
       </c>
       <c r="E8">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.1195776528484048</v>
+        <v>0.1195607795662408</v>
       </c>
       <c r="C9">
-        <v>-0.01405356867129755</v>
+        <v>-0.01395104483814739</v>
       </c>
       <c r="D9">
-        <v>0.03191416919464421</v>
+        <v>0.0318922542580576</v>
       </c>
       <c r="E9">
-        <v>0.907</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.1892327834053583</v>
+        <v>0.189217169328999</v>
       </c>
       <c r="C10">
-        <v>0.02109115636626351</v>
+        <v>0.02123359863727264</v>
       </c>
       <c r="D10">
-        <v>0.04179002311114403</v>
+        <v>0.04179876026162317</v>
       </c>
       <c r="E10">
-        <v>0.801</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="11">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.2840143818474669</v>
+        <v>-0.2840080892351718</v>
       </c>
       <c r="C11">
-        <v>-0.1448643619672026</v>
+        <v>-0.144781317457609</v>
       </c>
       <c r="D11">
-        <v>0.3423563680151704</v>
+        <v>0.3421747245008634</v>
       </c>
       <c r="E11">
         <v>0.297</v>
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.3103649931091818</v>
+        <v>-0.3103424395997023</v>
       </c>
       <c r="C12">
-        <v>0.04794817651198068</v>
+        <v>0.04797447736730491</v>
       </c>
       <c r="D12">
-        <v>0.1053922511384834</v>
+        <v>0.1053870944640621</v>
       </c>
       <c r="E12">
-        <v>0.719</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.1632627352290609</v>
+        <v>-0.1633132730626341</v>
       </c>
       <c r="C13">
-        <v>-0.1962292071526787</v>
+        <v>-0.1963975845333781</v>
       </c>
       <c r="D13">
-        <v>0.3178662728622524</v>
+        <v>0.3182101761263444</v>
       </c>
       <c r="E13">
-        <v>0.313</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>-0.3687686945449957</v>
+        <v>-0.3687409785425831</v>
       </c>
       <c r="C14">
-        <v>-0.1633524299309842</v>
+        <v>-0.1631852095069371</v>
       </c>
       <c r="D14">
-        <v>0.218890739101623</v>
+        <v>0.2187115839924619</v>
       </c>
       <c r="E14">
-        <v>0.552</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.1895054715302351</v>
+        <v>0.1894898494639432</v>
       </c>
       <c r="C15">
-        <v>0.0215547313461047</v>
+        <v>0.02169768474386834</v>
       </c>
       <c r="D15">
-        <v>0.04174858232297539</v>
+        <v>0.04175763380793984</v>
       </c>
       <c r="E15">
-        <v>0.863</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.1895106243763361</v>
+        <v>0.1894950019100357</v>
       </c>
       <c r="C16">
-        <v>0.02155643803110452</v>
+        <v>0.02169939120488456</v>
       </c>
       <c r="D16">
-        <v>0.04174970367785028</v>
+        <v>0.04175875561381485</v>
       </c>
       <c r="E16">
-        <v>0.877</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.09003204788006844</v>
+        <v>0.09001648745532517</v>
       </c>
       <c r="C17">
-        <v>0.03549579285626683</v>
+        <v>0.03543171783280816</v>
       </c>
       <c r="D17">
-        <v>0.05066396061314959</v>
+        <v>0.05070988111302609</v>
       </c>
       <c r="E17">
-        <v>0.829</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.2266048197281959</v>
+        <v>0.2266004089155865</v>
       </c>
       <c r="C18">
-        <v>-0.03798714260471606</v>
+        <v>-0.0379223245912946</v>
       </c>
       <c r="D18">
-        <v>0.07663970030293427</v>
+        <v>0.07659537947218323</v>
       </c>
       <c r="E18">
-        <v>0.73</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.3779286588358757</v>
+        <v>0.377922062091115</v>
       </c>
       <c r="C19">
-        <v>-0.03816048296954341</v>
+        <v>-0.03815706938780097</v>
       </c>
       <c r="D19">
-        <v>0.3321861265139833</v>
+        <v>0.3321517572527063</v>
       </c>
       <c r="E19">
-        <v>0.302</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.1895106243763361</v>
+        <v>0.1894950019100357</v>
       </c>
       <c r="C20">
-        <v>0.02155643803110452</v>
+        <v>0.02169939120488456</v>
       </c>
       <c r="D20">
-        <v>0.0417497036778503</v>
+        <v>0.04175875561381483</v>
       </c>
       <c r="E20">
-        <v>0.877</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-0.1697325961185562</v>
+        <v>-0.1697424040986772</v>
       </c>
       <c r="C21">
-        <v>0.005336956078411609</v>
+        <v>0.005337909280088831</v>
       </c>
       <c r="D21">
-        <v>0.09537367290469691</v>
+        <v>0.09540426915006781</v>
       </c>
       <c r="E21">
-        <v>0.724</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.06976972894136509</v>
+        <v>0.06971979478588147</v>
       </c>
       <c r="C22">
-        <v>-0.06384481926680223</v>
+        <v>-0.0639495811993204</v>
       </c>
       <c r="D22">
-        <v>0.0337687518238825</v>
+        <v>0.0338260720666068</v>
       </c>
       <c r="E22">
-        <v>0.898</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>-0.2122523904373456</v>
+        <v>-0.2123124518392486</v>
       </c>
       <c r="C23">
-        <v>-0.2802082176842558</v>
+        <v>-0.280422445915561</v>
       </c>
       <c r="D23">
-        <v>0.2424938590596465</v>
+        <v>0.2427369281608101</v>
       </c>
       <c r="E23">
-        <v>0.429</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.02648298321928359</v>
+        <v>-0.02651270091133435</v>
       </c>
       <c r="C24">
-        <v>-0.1110030551173533</v>
+        <v>-0.1110395091231179</v>
       </c>
       <c r="D24">
-        <v>0.1053010708350423</v>
+        <v>0.1053088614153201</v>
       </c>
       <c r="E24">
-        <v>0.725</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.1397129422006423</v>
+        <v>-0.1397662829959529</v>
       </c>
       <c r="C25">
-        <v>-0.2118782112568453</v>
+        <v>-0.2120492300337618</v>
       </c>
       <c r="D25">
-        <v>0.3680549153663389</v>
+        <v>0.3684444204213026</v>
       </c>
       <c r="E25">
-        <v>0.246</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.1385879554256962</v>
+        <v>0.1385542610449545</v>
       </c>
       <c r="C26">
-        <v>-0.08552170607485778</v>
+        <v>-0.08562967609527834</v>
       </c>
       <c r="D26">
-        <v>0.1455621909553377</v>
+        <v>0.1456563412464353</v>
       </c>
       <c r="E26">
-        <v>0.5639999999999999</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.1241986883697844</v>
+        <v>0.1242601844370539</v>
       </c>
       <c r="C27">
-        <v>0.5044760891807774</v>
+        <v>0.5044921270749126</v>
       </c>
       <c r="D27">
-        <v>0.6382991953948104</v>
+        <v>0.6380968683080416</v>
       </c>
       <c r="E27">
-        <v>0.105</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.2757325931051228</v>
+        <v>-0.2757267244582081</v>
       </c>
       <c r="C28">
-        <v>-0.09506894062302303</v>
+        <v>-0.09499266710875026</v>
       </c>
       <c r="D28">
-        <v>0.3086820170530647</v>
+        <v>0.3085678324766228</v>
       </c>
       <c r="E28">
-        <v>0.296</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>-0.2176817526396969</v>
+        <v>-0.2177194911634634</v>
       </c>
       <c r="C29">
-        <v>-0.2331527161741855</v>
+        <v>-0.2332582123818459</v>
       </c>
       <c r="D29">
-        <v>0.4250396724266132</v>
+        <v>0.425091416309927</v>
       </c>
       <c r="E29">
-        <v>0.181</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-0.2116611705659983</v>
+        <v>-0.2116923582372247</v>
       </c>
       <c r="C30">
-        <v>-0.2189525034374092</v>
+        <v>-0.2190359255316713</v>
       </c>
       <c r="D30">
-        <v>0.5354493356717364</v>
+        <v>0.535449891902816</v>
       </c>
       <c r="E30">
-        <v>0.103</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.01251127547677264</v>
+        <v>-0.01253951088224629</v>
       </c>
       <c r="C31">
-        <v>-0.08315038516199748</v>
+        <v>-0.08322899122130201</v>
       </c>
       <c r="D31">
-        <v>0.2091725175918112</v>
+        <v>0.2093056477878401</v>
       </c>
       <c r="E31">
-        <v>0.491</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.1241986883697844</v>
+        <v>0.1242601844370539</v>
       </c>
       <c r="C32">
-        <v>0.5044760891807774</v>
+        <v>0.5044921270749126</v>
       </c>
       <c r="D32">
-        <v>0.6382991953948106</v>
+        <v>0.6380968683080419</v>
       </c>
       <c r="E32">
-        <v>0.105</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.1901224388902826</v>
+        <v>-0.1901566271072484</v>
       </c>
       <c r="C33">
-        <v>-0.03152863017333733</v>
+        <v>-0.03158958482140854</v>
       </c>
       <c r="D33">
-        <v>0.0453046061663705</v>
+        <v>0.04534761987726593</v>
       </c>
       <c r="E33">
-        <v>0.837</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>-0.1213628580742094</v>
+        <v>-0.1214076049428911</v>
       </c>
       <c r="C34">
-        <v>-0.09108798816073715</v>
+        <v>-0.0911752604022104</v>
       </c>
       <c r="D34">
-        <v>0.05256882650018554</v>
+        <v>0.05263088132374358</v>
       </c>
       <c r="E34">
-        <v>0.822</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.0333026775283758</v>
+        <v>0.03328616183921222</v>
       </c>
       <c r="C35">
-        <v>-0.1596185405003881</v>
+        <v>-0.1596641707358852</v>
       </c>
       <c r="D35">
-        <v>0.063409152489299</v>
+        <v>0.06341748593666575</v>
       </c>
       <c r="E35">
-        <v>0.767</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>-0.1749167378088971</v>
+        <v>-0.1749593920968558</v>
       </c>
       <c r="C36">
-        <v>-0.2068749227072604</v>
+        <v>-0.2070222072056302</v>
       </c>
       <c r="D36">
-        <v>0.3635108365199431</v>
+        <v>0.3638101488860004</v>
       </c>
       <c r="E36">
-        <v>0.246</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="37">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="B37">
-        <v>-0.1505256043020736</v>
+        <v>-0.1505757725094896</v>
       </c>
       <c r="C37">
-        <v>-0.06049804471686372</v>
+        <v>-0.0605852751105107</v>
       </c>
       <c r="D37">
-        <v>0.03455305138616677</v>
+        <v>0.03459287982578726</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.09777547283099114</v>
+        <v>0.09774119394306438</v>
       </c>
       <c r="C38">
-        <v>-0.09512511746828768</v>
+        <v>-0.09519029144820101</v>
       </c>
       <c r="D38">
-        <v>0.09189156089693316</v>
+        <v>0.09191294928552349</v>
       </c>
       <c r="E38">
-        <v>0.711</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-0.05810463319070145</v>
+        <v>-0.0581378823561384</v>
       </c>
       <c r="C39">
-        <v>-0.1103315762395229</v>
+        <v>-0.1103978918589235</v>
       </c>
       <c r="D39">
-        <v>0.07642244475484983</v>
+        <v>0.07648609049159601</v>
       </c>
       <c r="E39">
-        <v>0.8139999999999999</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-0.102522780118233</v>
+        <v>-0.1025641606902486</v>
       </c>
       <c r="C40">
-        <v>-0.08638124225716463</v>
+        <v>-0.08645760965923163</v>
       </c>
       <c r="D40">
-        <v>0.05296299492269753</v>
+        <v>0.05302382238900655</v>
       </c>
       <c r="E40">
-        <v>0.836</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.5890811493369518</v>
+        <v>0.5891303943079581</v>
       </c>
       <c r="C41">
-        <v>-0.0611992010826758</v>
+        <v>-0.06113506873022156</v>
       </c>
       <c r="D41">
-        <v>0.4015841919060497</v>
+        <v>0.4016379077722553</v>
       </c>
       <c r="E41">
-        <v>0.323</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.0333026775283758</v>
+        <v>0.03328616183921222</v>
       </c>
       <c r="C42">
-        <v>-0.1596185405003881</v>
+        <v>-0.1596641707358852</v>
       </c>
       <c r="D42">
-        <v>0.06340915248929897</v>
+        <v>0.06341748593666581</v>
       </c>
       <c r="E42">
-        <v>0.767</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.5288385164322221</v>
+        <v>-0.5287710164499745</v>
       </c>
       <c r="C43">
-        <v>0.253609626988494</v>
+        <v>0.2537428718070868</v>
       </c>
       <c r="D43">
-        <v>0.478144916397073</v>
+        <v>0.4781749489313016</v>
       </c>
       <c r="E43">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-0.2728687088788455</v>
+        <v>-0.2728645514466306</v>
       </c>
       <c r="C44">
-        <v>0.05473771012883404</v>
+        <v>0.0547627498550353</v>
       </c>
       <c r="D44">
-        <v>0.1344954753882302</v>
+        <v>0.1345256488219447</v>
       </c>
       <c r="E44">
-        <v>0.624</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>-0.09523975880628852</v>
+        <v>-0.09528034419419656</v>
       </c>
       <c r="C45">
-        <v>-0.08515327824660306</v>
+        <v>-0.08522502121134055</v>
       </c>
       <c r="D45">
-        <v>0.0526039951864384</v>
+        <v>0.05266337960050761</v>
       </c>
       <c r="E45">
-        <v>0.828</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.1755539442705221</v>
+        <v>0.1755371449864036</v>
       </c>
       <c r="C46">
-        <v>-0.01932119654452614</v>
+        <v>-0.01923637853226797</v>
       </c>
       <c r="D46">
-        <v>0.05144038590993266</v>
+        <v>0.05141399539087677</v>
       </c>
       <c r="E46">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-0.361283581044035</v>
+        <v>-0.3612600628396592</v>
       </c>
       <c r="C47">
-        <v>-0.1689408498694963</v>
+        <v>-0.168791871548062</v>
       </c>
       <c r="D47">
-        <v>0.2314622108923512</v>
+        <v>0.2312791157743732</v>
       </c>
       <c r="E47">
-        <v>0.436</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>-0.3515627521064376</v>
+        <v>-0.3515360339971844</v>
       </c>
       <c r="C48">
-        <v>-0.1426229752817056</v>
+        <v>-0.1424695653969077</v>
       </c>
       <c r="D48">
-        <v>0.2373191191540499</v>
+        <v>0.2371291272149502</v>
       </c>
       <c r="E48">
-        <v>0.438</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.1895106243763361</v>
+        <v>0.1894950019100357</v>
       </c>
       <c r="C49">
-        <v>0.02155643803110452</v>
+        <v>0.02169939120488456</v>
       </c>
       <c r="D49">
-        <v>0.0417497036778503</v>
+        <v>0.04175875561381486</v>
       </c>
       <c r="E49">
-        <v>0.877</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-0.1472976174481421</v>
+        <v>-0.1473472471770293</v>
       </c>
       <c r="C50">
-        <v>-0.06134319296397833</v>
+        <v>-0.06142898942427651</v>
       </c>
       <c r="D50">
-        <v>0.03490001131542601</v>
+        <v>0.03494047656727108</v>
       </c>
       <c r="E50">
-        <v>0.9340000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.04247919738732624</v>
+        <v>0.04248728533672239</v>
       </c>
       <c r="C51">
-        <v>0.07397715772304689</v>
+        <v>0.07400047894643767</v>
       </c>
       <c r="D51">
-        <v>0.02686373556705164</v>
+        <v>0.02680853544289749</v>
       </c>
       <c r="E51">
-        <v>0.923</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.0333026775283758</v>
+        <v>0.03328616183921222</v>
       </c>
       <c r="C52">
-        <v>-0.1596185405003881</v>
+        <v>-0.1596641707358852</v>
       </c>
       <c r="D52">
-        <v>0.06340915248929892</v>
+        <v>0.06341748593666581</v>
       </c>
       <c r="E52">
-        <v>0.767</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="53">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.09850153635720253</v>
+        <v>0.09849070399445378</v>
       </c>
       <c r="C53">
-        <v>-0.02324919356603407</v>
+        <v>-0.02313201609840717</v>
       </c>
       <c r="D53">
-        <v>0.02757028942380407</v>
+        <v>0.02754347876139411</v>
       </c>
       <c r="E53">
-        <v>0.926</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.1759809523665274</v>
+        <v>0.1759801614630751</v>
       </c>
       <c r="C54">
-        <v>0.1147845767160396</v>
+        <v>0.1149023683481432</v>
       </c>
       <c r="D54">
-        <v>0.0494823311880828</v>
+        <v>0.04950971752614362</v>
       </c>
       <c r="E54">
-        <v>0.781</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.1241986883697844</v>
+        <v>0.1242601844370539</v>
       </c>
       <c r="C55">
-        <v>0.5044760891807774</v>
+        <v>0.5044921270749126</v>
       </c>
       <c r="D55">
-        <v>0.6382991953948106</v>
+        <v>0.6380968683080419</v>
       </c>
       <c r="E55">
-        <v>0.105</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="56">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.1505256043020736</v>
+        <v>-0.1505757725094896</v>
       </c>
       <c r="C56">
-        <v>-0.06049804471686372</v>
+        <v>-0.0605852751105107</v>
       </c>
       <c r="D56">
-        <v>0.03455305138616678</v>
+        <v>0.03459287982578735</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.008076645968987949</v>
+        <v>0.008067488562583398</v>
       </c>
       <c r="C57">
-        <v>-0.0230640411592297</v>
+        <v>-0.02299693579907242</v>
       </c>
       <c r="D57">
-        <v>0.01297091827236044</v>
+        <v>0.01292009199895977</v>
       </c>
       <c r="E57">
         <v>0.966</v>
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>-0.1273110980282016</v>
+        <v>-0.1273448847055938</v>
       </c>
       <c r="C58">
-        <v>-0.05525526571042803</v>
+        <v>-0.05536209159548282</v>
       </c>
       <c r="D58">
-        <v>0.08753907073071339</v>
+        <v>0.08764296527070156</v>
       </c>
       <c r="E58">
-        <v>0.747</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="59">
@@ -1474,13 +1474,13 @@
         </is>
       </c>
       <c r="B59">
-        <v>-0.1505256043020736</v>
+        <v>-0.1505757725094896</v>
       </c>
       <c r="C59">
-        <v>-0.06049804471686372</v>
+        <v>-0.0605852751105107</v>
       </c>
       <c r="D59">
-        <v>0.03455305138616672</v>
+        <v>0.03459287982578734</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>-0.03984199750985889</v>
+        <v>-0.03985975748707062</v>
       </c>
       <c r="C60">
-        <v>-0.1283100079815102</v>
+        <v>-0.1283434154009968</v>
       </c>
       <c r="D60">
-        <v>0.09015962871075155</v>
+        <v>0.0901776989986222</v>
       </c>
       <c r="E60">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="61">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.03369355541126416</v>
+        <v>0.03367704195720492</v>
       </c>
       <c r="C61">
-        <v>-0.1591651878159074</v>
+        <v>-0.1592103461606637</v>
       </c>
       <c r="D61">
-        <v>0.06343901763317077</v>
+        <v>0.06344709297097881</v>
       </c>
       <c r="E61">
-        <v>0.731</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="62">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.04172798836005175</v>
+        <v>0.04171179682161835</v>
       </c>
       <c r="C62">
-        <v>-0.1395317700579574</v>
+        <v>-0.1395597338701507</v>
       </c>
       <c r="D62">
-        <v>0.06444934354505817</v>
+        <v>0.0644478451136507</v>
       </c>
       <c r="E62">
-        <v>0.736</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.04997021377104431</v>
+        <v>0.04994506804975209</v>
       </c>
       <c r="C63">
-        <v>-0.04440919520427752</v>
+        <v>-0.04438982641951137</v>
       </c>
       <c r="D63">
-        <v>0.03519912587595545</v>
+        <v>0.03515696424214262</v>
       </c>
       <c r="E63">
-        <v>0.946</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.3431078123787084</v>
+        <v>0.343117319473724</v>
       </c>
       <c r="C64">
-        <v>-0.01060122725489886</v>
+        <v>-0.0104887863604827</v>
       </c>
       <c r="D64">
-        <v>0.1030252843435638</v>
+        <v>0.1030312805545203</v>
       </c>
       <c r="E64">
-        <v>0.655</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="65">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.326505471246593</v>
+        <v>0.326514712349792</v>
       </c>
       <c r="C65">
-        <v>-0.07113502841194887</v>
+        <v>-0.07112104423031328</v>
       </c>
       <c r="D65">
-        <v>0.508429001971112</v>
+        <v>0.5082767727411718</v>
       </c>
       <c r="E65">
-        <v>0.101</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="66">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.1591035183447896</v>
+        <v>0.1590891418044411</v>
       </c>
       <c r="C66">
-        <v>0.06885632391682767</v>
+        <v>0.06884405480462635</v>
       </c>
       <c r="D66">
-        <v>0.07338021694914677</v>
+        <v>0.07337603360243103</v>
       </c>
       <c r="E66">
-        <v>0.745</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.3083144268511818</v>
+        <v>0.3083332777159226</v>
       </c>
       <c r="C67">
-        <v>-0.0424211460357863</v>
+        <v>-0.04241253148157768</v>
       </c>
       <c r="D67">
-        <v>0.3472839753961004</v>
+        <v>0.3472699058756922</v>
       </c>
       <c r="E67">
-        <v>0.255</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-0.2646173283598015</v>
+        <v>-0.2646410341889215</v>
       </c>
       <c r="C68">
-        <v>-0.1981231382650233</v>
+        <v>-0.1981665214714231</v>
       </c>
       <c r="D68">
-        <v>0.5448855094053051</v>
+        <v>0.5448547013305775</v>
       </c>
       <c r="E68">
-        <v>0.106</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>-0.1082479091469709</v>
+        <v>-0.1082910253233924</v>
       </c>
       <c r="C69">
-        <v>-0.07670747089197982</v>
+        <v>-0.07678133092376906</v>
       </c>
       <c r="D69">
-        <v>0.04474413181839113</v>
+        <v>0.04479700800312506</v>
       </c>
       <c r="E69">
-        <v>0.844</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.2927475551439425</v>
+        <v>-0.2927336433310677</v>
       </c>
       <c r="C70">
-        <v>-0.1558014104056121</v>
+        <v>-0.1556766435168445</v>
       </c>
       <c r="D70">
-        <v>0.2230290955303209</v>
+        <v>0.2228221096756615</v>
       </c>
       <c r="E70">
-        <v>0.484</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="71">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>-0.3952481576645184</v>
+        <v>-0.3952154857207564</v>
       </c>
       <c r="C71">
-        <v>0.02505274991014003</v>
+        <v>0.02516733549651761</v>
       </c>
       <c r="D71">
-        <v>0.4774168496913742</v>
+        <v>0.477313952555989</v>
       </c>
       <c r="E71">
-        <v>0.131</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="72">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.1895106243763361</v>
+        <v>0.1894950019100357</v>
       </c>
       <c r="C72">
-        <v>0.02155643803110452</v>
+        <v>0.02169939120488456</v>
       </c>
       <c r="D72">
-        <v>0.04174970367785031</v>
+        <v>0.04175875561381487</v>
       </c>
       <c r="E72">
-        <v>0.877</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>-0.05513628400840693</v>
+        <v>-0.05514520529371644</v>
       </c>
       <c r="C73">
-        <v>-0.05870229691791234</v>
+        <v>-0.0587114694294406</v>
       </c>
       <c r="D73">
-        <v>0.2658442298218659</v>
+        <v>0.2657770557901016</v>
       </c>
       <c r="E73">
-        <v>0.374</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.3096815387087106</v>
+        <v>0.3096358857072538</v>
       </c>
       <c r="C74">
-        <v>-0.07067747245473965</v>
+        <v>-0.07080961545972171</v>
       </c>
       <c r="D74">
-        <v>0.2301623107271564</v>
+        <v>0.2302255301164722</v>
       </c>
       <c r="E74">
-        <v>0.466</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.1495987799908968</v>
+        <v>0.1495568384731119</v>
       </c>
       <c r="C75">
-        <v>-0.1094859915643016</v>
+        <v>-0.1095889788809692</v>
       </c>
       <c r="D75">
-        <v>0.1300991773336318</v>
+        <v>0.1301278735845339</v>
       </c>
       <c r="E75">
-        <v>0.597</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="76">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.1241986883697844</v>
+        <v>0.1242601844370539</v>
       </c>
       <c r="C76">
-        <v>0.5044760891807774</v>
+        <v>0.5044921270749126</v>
       </c>
       <c r="D76">
-        <v>0.6382991953948106</v>
+        <v>0.6380968683080417</v>
       </c>
       <c r="E76">
-        <v>0.105</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.5890811493369518</v>
+        <v>0.5891303943079581</v>
       </c>
       <c r="C77">
-        <v>-0.0611992010826758</v>
+        <v>-0.06113506873022156</v>
       </c>
       <c r="D77">
-        <v>0.4015841919060495</v>
+        <v>0.4016379077722551</v>
       </c>
       <c r="E77">
-        <v>0.323</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.04810927573399051</v>
+        <v>0.04808546444641056</v>
       </c>
       <c r="C78">
-        <v>-0.154536043398491</v>
+        <v>-0.1546036922321626</v>
       </c>
       <c r="D78">
-        <v>0.07147520081381238</v>
+        <v>0.07149087366134854</v>
       </c>
       <c r="E78">
-        <v>0.661</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="79">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>-0.1550169938849171</v>
+        <v>-0.1550619794569965</v>
       </c>
       <c r="C79">
-        <v>-0.0490540319230562</v>
+        <v>-0.04913276521815236</v>
       </c>
       <c r="D79">
-        <v>0.03646488289650977</v>
+        <v>0.03650552910195094</v>
       </c>
       <c r="E79">
-        <v>0.918</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="80">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>-0.3687686945449957</v>
+        <v>-0.3687409785425831</v>
       </c>
       <c r="C80">
-        <v>-0.1633524299309842</v>
+        <v>-0.1631852095069371</v>
       </c>
       <c r="D80">
-        <v>0.2188907391016229</v>
+        <v>0.2187115839924619</v>
       </c>
       <c r="E80">
-        <v>0.552</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="81">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>-0.08664922816494092</v>
+        <v>-0.08668712684577846</v>
       </c>
       <c r="C81">
-        <v>-0.0218367399530612</v>
+        <v>-0.02188858097625315</v>
       </c>
       <c r="D81">
-        <v>0.026133230327139</v>
+        <v>0.02616538730982426</v>
       </c>
       <c r="E81">
-        <v>0.928</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.26526725108914</v>
+        <v>0.2652569299868045</v>
       </c>
       <c r="C82">
-        <v>0.006311446302823357</v>
+        <v>0.006268514172955511</v>
       </c>
       <c r="D82">
-        <v>0.2756382778610617</v>
+        <v>0.2756179500730625</v>
       </c>
       <c r="E82">
-        <v>0.388</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="83">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>-0.4035961714621745</v>
+        <v>-0.4035423607961014</v>
       </c>
       <c r="C83">
-        <v>0.2159027580977889</v>
+        <v>0.2160285309013161</v>
       </c>
       <c r="D83">
-        <v>0.3570520023181716</v>
+        <v>0.3571655155909231</v>
       </c>
       <c r="E83">
-        <v>0.28</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="84">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.5230341355306513</v>
+        <v>0.5230653193691213</v>
       </c>
       <c r="C84">
-        <v>-0.05193175422723655</v>
+        <v>-0.05189124467217741</v>
       </c>
       <c r="D84">
-        <v>0.5500945649108142</v>
+        <v>0.5501368598376912</v>
       </c>
       <c r="E84">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="85">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.05633691074898897</v>
+        <v>0.05632053778146662</v>
       </c>
       <c r="C85">
-        <v>-0.1130626786956526</v>
+        <v>-0.1130603521219393</v>
       </c>
       <c r="D85">
-        <v>0.06851667219796959</v>
+        <v>0.06848841510593354</v>
       </c>
       <c r="E85">
-        <v>0.791</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>-0.2839122356653849</v>
+        <v>-0.2839242704062218</v>
       </c>
       <c r="C86">
-        <v>-0.1692729648314291</v>
+        <v>-0.1692825846952255</v>
       </c>
       <c r="D86">
-        <v>0.5773386419735683</v>
+        <v>0.5772142700992106</v>
       </c>
       <c r="E86">
-        <v>0.07099999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.3282398120339233</v>
+        <v>0.3281757659696168</v>
       </c>
       <c r="C87">
-        <v>-0.05604098739407561</v>
+        <v>-0.05621743384358296</v>
       </c>
       <c r="D87">
-        <v>0.1295082548946756</v>
+        <v>0.1295092374099504</v>
       </c>
       <c r="E87">
-        <v>0.6870000000000001</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="88">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.09547607034954758</v>
+        <v>0.09547475654930025</v>
       </c>
       <c r="C88">
-        <v>0.07426718053294401</v>
+        <v>0.074359783310036</v>
       </c>
       <c r="D88">
-        <v>0.03187822469770171</v>
+        <v>0.03188958713704308</v>
       </c>
       <c r="E88">
-        <v>0.918</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.1906690276900993</v>
+        <v>0.1906536124467783</v>
       </c>
       <c r="C89">
-        <v>0.02111393140357262</v>
+        <v>0.02125633539353957</v>
       </c>
       <c r="D89">
-        <v>0.04198374863480999</v>
+        <v>0.04199268459666334</v>
       </c>
       <c r="E89">
-        <v>0.773</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="90">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>-0.1177703837370598</v>
+        <v>-0.1178142477301805</v>
       </c>
       <c r="C90">
-        <v>-0.03078969222393636</v>
+        <v>-0.03087262271528092</v>
       </c>
       <c r="D90">
-        <v>0.03168517856989705</v>
+        <v>0.03172313594191775</v>
       </c>
       <c r="E90">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="91">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>-0.3496309553812865</v>
+        <v>-0.3496062917914748</v>
       </c>
       <c r="C91">
-        <v>-0.1607290441481724</v>
+        <v>-0.1605745947682984</v>
       </c>
       <c r="D91">
-        <v>0.2282871350464473</v>
+        <v>0.228101010321216</v>
       </c>
       <c r="E91">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="92">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>-0.434569845704835</v>
+        <v>-0.434527544280213</v>
       </c>
       <c r="C92">
-        <v>0.09853505998470874</v>
+        <v>0.09864372695364919</v>
       </c>
       <c r="D92">
-        <v>0.6691396908709039</v>
+        <v>0.6691129809110278</v>
       </c>
       <c r="E92">
-        <v>0.042</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="93">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>-0.1202396718212271</v>
+        <v>-0.1202337302560429</v>
       </c>
       <c r="C93">
-        <v>-0.08459935447656386</v>
+        <v>-0.08454117488940048</v>
       </c>
       <c r="D93">
-        <v>0.1040425462033534</v>
+        <v>0.1039443145440963</v>
       </c>
       <c r="E93">
-        <v>0.694</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="94">
@@ -2139,13 +2139,13 @@
         </is>
       </c>
       <c r="B94">
-        <v>-0.1505256043020736</v>
+        <v>-0.1505757725094896</v>
       </c>
       <c r="C94">
-        <v>-0.06049804471686372</v>
+        <v>-0.0605852751105107</v>
       </c>
       <c r="D94">
-        <v>0.0345530513861667</v>
+        <v>0.0345928798257873</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>-0.5327862623609566</v>
+        <v>-0.5327183055725553</v>
       </c>
       <c r="C95">
-        <v>0.2548848940973615</v>
+        <v>0.2550180855629015</v>
       </c>
       <c r="D95">
-        <v>0.4795118520898792</v>
+        <v>0.4795383529802123</v>
       </c>
       <c r="E95">
-        <v>0.213</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="96">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>-0.531134802880218</v>
+        <v>-0.5310668757976625</v>
       </c>
       <c r="C96">
-        <v>0.2553629928655076</v>
+        <v>0.2554958907878212</v>
       </c>
       <c r="D96">
-        <v>0.4803409974605405</v>
+        <v>0.4803675299152731</v>
       </c>
       <c r="E96">
-        <v>0.116</v>
+        <v>0.121</v>
       </c>
     </row>
   </sheetData>
